--- a/products/fixtures/import_test.xlsx
+++ b/products/fixtures/import_test.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>owner</t>
+  </si>
+  <si>
     <t>summary</t>
   </si>
   <si>
@@ -43,9 +46,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>price_hour</t>
   </si>
   <si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t> Description 1</t>
-  </si>
-  <si>
-    <t>2888</t>
   </si>
   <si>
     <t>5,1,4,13</t>
@@ -256,21 +253,22 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.96428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.8673469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.30612244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.5867346938776"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="6.93877551020408"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.5867346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.80612244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.8673469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.30612244897959"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.5867346938776"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.77551020408163"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.4132653061225"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.1377551020408"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.25"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.9744897959184"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.8367346938776"/>
@@ -281,10 +279,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -323,26 +321,26 @@
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="n">
+        <v>103483</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>103483</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>5</v>
@@ -365,26 +363,26 @@
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="n">
+        <v>103483</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="n">
+      <c r="H3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>103483</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>6</v>
@@ -407,26 +405,26 @@
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="n">
+        <v>103483</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>103483</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>7</v>
@@ -449,26 +447,26 @@
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="n">
+        <v>103483</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>103483</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>8</v>
@@ -491,26 +489,26 @@
     </row>
     <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="n">
+        <v>103483</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="2" t="n">
+      <c r="E6" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>103483</v>
+      <c r="H6" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>9</v>
@@ -533,26 +531,26 @@
     </row>
     <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="n">
+        <v>103483</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="2" t="n">
+      <c r="E7" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>103483</v>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>10</v>
@@ -575,26 +573,26 @@
     </row>
     <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="n">
+        <v>103483</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>103483</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>11</v>
@@ -617,26 +615,26 @@
     </row>
     <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="n">
+        <v>103483</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="2" t="n">
+      <c r="E9" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>103483</v>
+      <c r="H9" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>12</v>
@@ -659,26 +657,26 @@
     </row>
     <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="n">
+        <v>103483</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2" t="n">
+      <c r="E10" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>103483</v>
+      <c r="H10" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>13</v>

--- a/products/fixtures/import_test.xlsx
+++ b/products/fixtures/import_test.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -70,18 +70,21 @@
     <t> Description 1</t>
   </si>
   <si>
+    <t>5,</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>Summary 2</t>
+  </si>
+  <si>
+    <t> Description 2</t>
+  </si>
+  <si>
     <t>5,1,4,13</t>
   </si>
   <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>Summary 2</t>
-  </si>
-  <si>
-    <t> Description 2</t>
-  </si>
-  <si>
     <t>USD</t>
   </si>
   <si>
@@ -110,6 +113,9 @@
   </si>
   <si>
     <t> Description 6</t>
+  </si>
+  <si>
+    <t>4,</t>
   </si>
   <si>
     <t>Summary 7</t>
@@ -138,7 +144,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -159,11 +165,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -208,12 +209,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -223,10 +220,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -253,63 +246,59 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.96428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.80612244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.8673469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.30612244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.5867346938776"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.77551020408163"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.4132653061225"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.1377551020408"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.25"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.9744897959184"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.8367346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.80612244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="0" t="s">
@@ -320,26 +309,26 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="n">
-        <v>103483</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="n">
+        <v>103483</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="n">
-        <v>44</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="0" t="n">
@@ -362,27 +351,27 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="n">
-        <v>103483</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="n">
+        <v>103483</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="3" t="n">
-        <v>44</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
+      <c r="E3" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>6</v>
@@ -404,27 +393,27 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="n">
-        <v>103483</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="n">
+        <v>103483</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="3" t="n">
-        <v>44</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="2" t="n">
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>23</v>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>7</v>
@@ -445,70 +434,58 @@
         <v>502</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="n">
-        <v>103483</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="5" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="n">
+        <v>103483</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="3" t="n">
-        <v>44</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="2" t="n">
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="J5" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>63</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>103</v>
-      </c>
       <c r="M5" s="0" t="n">
         <v>203</v>
       </c>
-      <c r="N5" s="0" t="n">
-        <v>503</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="n">
-        <v>103483</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="n">
+        <v>103483</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="3" t="n">
-        <v>44</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="2" t="n">
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>20</v>
+      <c r="H6" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>9</v>
@@ -529,28 +506,28 @@
         <v>504</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="n">
-        <v>103483</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="5" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="n">
+        <v>103483</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="3" t="n">
-        <v>44</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="2" t="n">
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>23</v>
+      <c r="H7" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>10</v>
@@ -558,9 +535,6 @@
       <c r="J7" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="K7" s="0" t="n">
-        <v>65</v>
-      </c>
       <c r="L7" s="0" t="n">
         <v>105</v>
       </c>
@@ -571,27 +545,27 @@
         <v>505</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="n">
-        <v>103483</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>44</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="2" t="n">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="n">
+        <v>103483</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I8" s="0" t="n">
@@ -606,38 +580,32 @@
       <c r="L8" s="0" t="n">
         <v>106</v>
       </c>
-      <c r="M8" s="0" t="n">
-        <v>206</v>
-      </c>
       <c r="N8" s="0" t="n">
         <v>506</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="n">
-        <v>103483</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>44</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="2" t="n">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="n">
+        <v>103483</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>12</v>
+      <c r="H9" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>27</v>
@@ -656,27 +624,27 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="n">
-        <v>103483</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>44</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="2" t="n">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="n">
+        <v>103483</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>23</v>
+      <c r="H10" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>13</v>
